--- a/Data/TOPAS Data/Overlap2Overall.xlsx
+++ b/Data/TOPAS Data/Overlap2Overall.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottezehnder/Documents/laserStabilization/Data/TOPAS Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0D632791-BAB4-5E4F-BB4E-EFC7D4248C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F60055-253B-F744-A3DE-5B9F9F5A8680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1160" windowWidth="24380" windowHeight="16740"/>
+    <workbookView xWindow="2280" yWindow="3100" windowWidth="24380" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overlap2Overall" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Overlap2Overall!$A$2:$A$1018</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Overlap2Overall!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Overlap2Overall!$C$2:$C$1018</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Overlap2Overall!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Overlap2Overall!$D$2:$D$1018</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -16780,8 +16798,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16798,18 +16816,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Overlap2Overall!$A$2:$A$1018</c:f>
               <c:numCache>
@@ -19868,8 +19896,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Overlap2Overall!$C$2:$C$1018</c:f>
               <c:numCache>
@@ -22928,7 +22956,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -22948,18 +22976,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Overlap2Overall!$A$2:$A$1018</c:f>
               <c:numCache>
@@ -26018,8 +26056,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Overlap2Overall!$D$2:$D$1018</c:f>
               <c:numCache>
@@ -29078,7 +29116,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -29094,11 +29132,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1891925791"/>
         <c:axId val="1892064543"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1891925791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -29158,11 +29195,8 @@
         </c:txPr>
         <c:crossAx val="1892064543"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1892064543"/>
         <c:scaling>
@@ -29223,7 +29257,7 @@
         </c:txPr>
         <c:crossAx val="1891925791"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -31977,10 +32011,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
